--- a/allTest_MDPCPC.xlsx
+++ b/allTest_MDPCPC.xlsx
@@ -447,7 +447,7 @@
         <v>16</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -458,7 +458,7 @@
         <v>16</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -469,7 +469,7 @@
         <v>16</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -480,7 +480,7 @@
         <v>16</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -491,7 +491,7 @@
         <v>16</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -502,7 +502,7 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -513,7 +513,7 @@
         <v>16</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -524,7 +524,7 @@
         <v>16</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -535,7 +535,7 @@
         <v>16</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -546,7 +546,7 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -557,7 +557,7 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -568,7 +568,7 @@
         <v>16</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -579,7 +579,7 @@
         <v>16</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
